--- a/medicine/Psychotrope/This_Is_Your_Brain_on_Drugs/This_Is_Your_Brain_on_Drugs.xlsx
+++ b/medicine/Psychotrope/This_Is_Your_Brain_on_Drugs/This_Is_Your_Brain_on_Drugs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-This Is Your Brain on Drugs (« Voici votre cerveau sous l’emprise de drogues » en français)[1] est une campagne anti-drogue télévisuel aux États-Unis, qui a été diffusée d'abord en 1987. C'est un message d'intéret public de Partnership for a Drug-Free America[2].  
-Dans la publicité de 1987, un homme tient un œuf, disant « Voici votre cerveau », puis montre une poêle à frire, disant «Voici de la drogue ». Suivant, il casse et fait frire l'œuf, disant « Voici votre cerveau sous l’emprise de drogues. Des questions ? »[1] 
-Ce slogan a été utilisé en quelques publicités depuis 1987. Un reprise de 2016 met en scène des enfants qui posent des questions sur les drogues au spectateur[3]. 
+This Is Your Brain on Drugs (« Voici votre cerveau sous l’emprise de drogues » en français) est une campagne anti-drogue télévisuel aux États-Unis, qui a été diffusée d'abord en 1987. C'est un message d'intéret public de Partnership for a Drug-Free America.  
+Dans la publicité de 1987, un homme tient un œuf, disant « Voici votre cerveau », puis montre une poêle à frire, disant «Voici de la drogue ». Suivant, il casse et fait frire l'œuf, disant « Voici votre cerveau sous l’emprise de drogues. Des questions ? » 
+Ce slogan a été utilisé en quelques publicités depuis 1987. Un reprise de 2016 met en scène des enfants qui posent des questions sur les drogues au spectateur. 
 </t>
         </is>
       </c>
